--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-8223-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-8223-top-by-races-count.xlsx
@@ -77,7 +77,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>11 ч. 22 мин. 9 сек.</t>
+    <t>11 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>5</t>
@@ -86,7 +86,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 54 сек.</t>
+    <t>17 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -131,7 +131,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>12 ч. 59 мин. 3 сек.</t>
+    <t>12 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>iji</t>
   </si>
   <si>
-    <t>11 ч. 29 мин. 2 сек.</t>
+    <t>11 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -167,7 +167,7 @@
     <t>counterfeit</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 23 сек.</t>
+    <t>9 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -194,7 +194,7 @@
     <t>byADDON</t>
   </si>
   <si>
-    <t>8 ч. 45 мин. 8 сек.</t>
+    <t>8 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -203,7 +203,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>8 ч. 44 мин. 2 сек.</t>
+    <t>8 ч. 44 мин. 02 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -311,7 +311,7 @@
     <t>Korner</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 7 сек.</t>
+    <t>4 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>31</t>
@@ -347,7 +347,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>6 ч. 39 мин. 8 сек.</t>
+    <t>6 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>35</t>
@@ -365,7 +365,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 22 сек.</t>
+    <t>4 ч. 04 мин. 22 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -419,7 +419,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 33 сек.</t>
+    <t>7 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -428,7 +428,7 @@
     <t>gramh</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 2 сек.</t>
+    <t>4 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -479,7 +479,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 8 сек.</t>
+    <t>5 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -515,7 +515,7 @@
     <t>Paulzh</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 4 сек.</t>
+    <t>5 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>54</t>
@@ -608,7 +608,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 32 сек.</t>
+    <t>2 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>65–67</t>
@@ -617,13 +617,13 @@
     <t>Maire</t>
   </si>
   <si>
-    <t>2 ч. 59 мин. 6 сек.</t>
+    <t>2 ч. 59 мин. 06 сек.</t>
   </si>
   <si>
     <t>dertru</t>
   </si>
   <si>
-    <t>4 ч. 54 мин. 9 сек.</t>
+    <t>4 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>KAYFARYK</t>
@@ -668,7 +668,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 58 сек.</t>
+    <t>3 ч. 07 мин. 58 сек.</t>
   </si>
   <si>
     <t>73</t>
@@ -704,7 +704,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 20 сек.</t>
+    <t>4 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>77–81</t>
@@ -725,13 +725,13 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 6 сек.</t>
+    <t>3 ч. 29 мин. 06 сек.</t>
   </si>
   <si>
     <t>WERT7</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 5 сек.</t>
+    <t>2 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>Ллисса</t>
@@ -770,7 +770,7 @@
     <t>Pcholka</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>86</t>
@@ -788,7 +788,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 0 сек.</t>
+    <t>2 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>88</t>
@@ -806,7 +806,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 27 сек.</t>
+    <t>2 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -911,7 +911,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 39 сек.</t>
+    <t>2 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>102</t>
@@ -920,7 +920,7 @@
     <t>oleggo</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 8 сек.</t>
+    <t>2 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>103</t>
@@ -938,7 +938,7 @@
     <t>EvilMachine</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 56 сек.</t>
+    <t>2 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>105</t>
@@ -1019,13 +1019,13 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 42 сек.</t>
+    <t>2 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>Rain</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 8 сек.</t>
+    <t>2 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>Uraniadz</t>
@@ -1064,13 +1064,13 @@
     <t>pavlosof</t>
   </si>
   <si>
-    <t>2 ч. 51 мин. 1 сек.</t>
+    <t>2 ч. 51 мин. 01 сек.</t>
   </si>
   <si>
     <t>Static</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 5 сек.</t>
+    <t>1 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>122–123</t>
@@ -1085,7 +1085,7 @@
     <t>awefork</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 9 сек.</t>
+    <t>1 ч. 47 мин. 09 сек.</t>
   </si>
   <si>
     <t>124–126</t>
@@ -1100,13 +1100,13 @@
     <t>Берегиня</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 6 сек.</t>
+    <t>2 ч. 08 мин. 06 сек.</t>
   </si>
   <si>
     <t>_Jack_</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 1 сек.</t>
+    <t>1 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>127–129</t>
@@ -1121,7 +1121,7 @@
     <t>bolgarinpavel</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 3 сек.</t>
+    <t>1 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>AcidMan</t>
@@ -1157,7 +1157,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 41 сек.</t>
+    <t>1 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>134</t>
@@ -1193,7 +1193,7 @@
     <t>Виталька</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 27 сек.</t>
+    <t>1 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>139–140</t>
@@ -1208,7 +1208,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 9 сек.</t>
+    <t>1 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>141–142</t>
@@ -1268,7 +1268,7 @@
     <t>shdw</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 46 сек.</t>
+    <t>1 ч. 06 мин. 46 сек.</t>
   </si>
   <si>
     <t>148</t>
@@ -1277,7 +1277,7 @@
     <t>lndeterminate</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 4 сек.</t>
+    <t>1 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>149–151</t>
@@ -1292,7 +1292,7 @@
     <t>molot-perm</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 7 сек.</t>
+    <t>1 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>borzonhiggs</t>
@@ -1316,19 +1316,19 @@
     <t>Твоямама</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 6 сек.</t>
+    <t>2 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>vovetRU</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 34 сек.</t>
+    <t>2 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>Lucky_You</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 7 сек.</t>
+    <t>2 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>citello</t>
@@ -1343,7 +1343,7 @@
     <t>Сонь</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 0 сек.</t>
+    <t>1 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>158</t>
@@ -1367,7 +1367,7 @@
     <t>Ilya666</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 6 сек.</t>
+    <t>1 ч. 38 мин. 06 сек.</t>
   </si>
   <si>
     <t>ArtIntel</t>
@@ -1382,7 +1382,7 @@
     <t>Wiiseacre</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 38 сек.</t>
+    <t>2 ч. 05 мин. 38 сек.</t>
   </si>
   <si>
     <t>163–165</t>
@@ -1403,7 +1403,7 @@
     <t>tyrpyr</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 3 сек.</t>
+    <t>1 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>166</t>
@@ -1412,7 +1412,7 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 7 сек.</t>
+    <t>2 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>167</t>
@@ -1421,7 +1421,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 3 сек.</t>
+    <t>1 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>168–169</t>
@@ -1436,7 +1436,7 @@
     <t>zvv</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 56 сек.</t>
+    <t>1 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>170–175</t>
@@ -1469,7 +1469,7 @@
     <t>Кощей3452</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 23 сек.</t>
+    <t>1 ч. 00 мин. 23 сек.</t>
   </si>
   <si>
     <t>Руфер</t>
@@ -1490,7 +1490,7 @@
     <t>ReadySteadyGo_</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 54 сек.</t>
+    <t>1 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>TARDIS</t>
@@ -1502,7 +1502,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 51 сек.</t>
+    <t>1 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>180</t>
@@ -1520,7 +1520,7 @@
     <t>ivkest</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 25 сек.</t>
+    <t>3 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>182–183</t>
@@ -1559,7 +1559,7 @@
     <t>ip_2112</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 49 сек.</t>
+    <t>2 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>187–189</t>
@@ -1568,19 +1568,19 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 0 сек.</t>
+    <t>1 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 28 сек.</t>
+    <t>1 ч. 09 мин. 28 сек.</t>
   </si>
   <si>
     <t>gassar</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 1 сек.</t>
+    <t>2 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>190–193</t>
@@ -1601,13 +1601,13 @@
     <t>Gardenstone</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 34 сек.</t>
+    <t>1 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>Squirr</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 2 сек.</t>
+    <t>1 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>194–195</t>
@@ -1616,7 +1616,7 @@
     <t>XuMuK_</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 8 сек.</t>
+    <t>2 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>Engi</t>
@@ -1631,7 +1631,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 39 сек.</t>
+    <t>1 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>197–200</t>
@@ -1682,7 +1682,7 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 2 сек.</t>
+    <t>1 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>ArtemChic</t>
@@ -1697,7 +1697,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 52 сек.</t>
+    <t>3 ч. 00 мин. 52 сек.</t>
   </si>
   <si>
     <t>exploration</t>
@@ -1718,7 +1718,7 @@
     <t>Jeena</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 39 сек.</t>
+    <t>1 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>oqiwue</t>
@@ -1739,7 +1739,7 @@
     <t>Pasha18</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 3 сек.</t>
+    <t>1 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>melik</t>
@@ -1760,7 +1760,7 @@
     <t>Аферист</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 15 сек.</t>
+    <t>1 ч. 00 мин. 15 сек.</t>
   </si>
   <si>
     <t>215–217</t>
@@ -1802,7 +1802,7 @@
     <t>4buRatoR</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 32 сек.</t>
+    <t>1 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>casio384</t>
@@ -1829,13 +1829,13 @@
     <t>TarutE</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 11 сек.</t>
+    <t>2 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>MirZz</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 5 сек.</t>
+    <t>1 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>VinDISEL</t>
@@ -1847,19 +1847,19 @@
     <t>machinek56</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 7 сек.</t>
+    <t>1 ч. 40 мин. 07 сек.</t>
   </si>
   <si>
     <t>Импульс</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 6 сек.</t>
+    <t>0 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>-LVV-</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 2 сек.</t>
+    <t>0 ч. 58 мин. 02 сек.</t>
   </si>
   <si>
     <t>230–231</t>
@@ -1874,7 +1874,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>0 ч. 43 мин. 4 сек.</t>
+    <t>0 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>232–238</t>
@@ -1889,7 +1889,7 @@
     <t>su-35</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 44 сек.</t>
+    <t>1 ч. 02 мин. 44 сек.</t>
   </si>
   <si>
     <t>Френдли</t>
@@ -1901,7 +1901,7 @@
     <t>Saranka</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 6 сек.</t>
+    <t>2 ч. 24 мин. 06 сек.</t>
   </si>
   <si>
     <t>albertcoin</t>
@@ -1919,7 +1919,7 @@
     <t>Ирдэнс</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 45 сек.</t>
+    <t>1 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -1949,7 +1949,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 56 сек.</t>
+    <t>1 ч. 07 мин. 56 сек.</t>
   </si>
   <si>
     <t>243–248</t>
@@ -1958,7 +1958,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 55 сек.</t>
+    <t>1 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>LostMyself</t>
@@ -1976,19 +1976,19 @@
     <t>Fleabag</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 11 сек.</t>
+    <t>2 ч. 06 мин. 11 сек.</t>
   </si>
   <si>
     <t>gurkovs</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 8 сек.</t>
+    <t>1 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>Arbiter</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 2 сек.</t>
+    <t>0 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>249–255</t>
@@ -2003,7 +2003,7 @@
     <t>VQV</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 5 сек.</t>
+    <t>1 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>Grevozin</t>
@@ -2051,13 +2051,13 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 33 сек.</t>
+    <t>1 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>coolgrave</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 2 сек.</t>
+    <t>0 ч. 57 мин. 02 сек.</t>
   </si>
   <si>
     <t>259–260</t>
@@ -2066,13 +2066,13 @@
     <t>Play4food</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 27 сек.</t>
+    <t>1 ч. 07 мин. 27 сек.</t>
   </si>
   <si>
     <t>Лень</t>
   </si>
   <si>
-    <t>0 ч. 39 мин. 8 сек.</t>
+    <t>0 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>261–263</t>
@@ -2087,13 +2087,13 @@
     <t>Астронафт</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 56 сек.</t>
+    <t>1 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>Kml</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 16 сек.</t>
+    <t>1 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>264–265</t>
@@ -2135,7 +2135,7 @@
     <t>Антоха61</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 39 сек.</t>
+    <t>2 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>Luxmaster</t>
@@ -2162,7 +2162,7 @@
     <t>Andrulya</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 0 сек.</t>
+    <t>2 ч. 09 мин. 00 сек.</t>
   </si>
   <si>
     <t>274–280</t>
@@ -2171,7 +2171,7 @@
     <t>zpslon</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 49 сек.</t>
+    <t>1 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>Эвелин</t>
@@ -2234,13 +2234,13 @@
     <t>k1netik</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 39 сек.</t>
+    <t>1 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>bkozhaev</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 3 сек.</t>
+    <t>0 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>zeliks</t>
@@ -2255,7 +2255,7 @@
     <t>lornashore</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 34 сек.</t>
+    <t>1 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>Мишка_Гамми</t>
@@ -2267,25 +2267,25 @@
     <t>Соточка</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 31 сек.</t>
+    <t>1 ч. 09 мин. 31 сек.</t>
   </si>
   <si>
     <t>JESE_R</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 52 сек.</t>
+    <t>1 ч. 07 мин. 52 сек.</t>
   </si>
   <si>
     <t>romashka_raz</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 13 сек.</t>
+    <t>1 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>sorokonoshka</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 11 сек.</t>
+    <t>1 ч. 03 мин. 11 сек.</t>
   </si>
   <si>
     <t>Asjay</t>
@@ -2297,7 +2297,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 50 сек.</t>
+    <t>1 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>Андруша</t>
@@ -2324,7 +2324,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 1 сек.</t>
+    <t>0 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>347122834</t>
@@ -2336,7 +2336,7 @@
     <t>dogs_life</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 6 сек.</t>
+    <t>0 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>oves</t>
@@ -2366,7 +2366,7 @@
     <t>_aggel</t>
   </si>
   <si>
-    <t>0 ч. 43 мин. 5 сек.</t>
+    <t>0 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>dbz</t>
